--- a/testdata/excel2json_files/test-name (test_label)/resources.xlsx
+++ b/testdata/excel2json_files/test-name (test_label)/resources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nusjoh00-adm/Desktop/dsp-tools/testdata/excel2project_files/test-name (test_label)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nussbaum/Desktop/dsp-tools/testdata/excel2json_files/test-name (test_label)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EE1B09-7B42-2B40-B799-CA52B3893422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4338CD55-47BB-C14E-B744-37BC66E76237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{7DA9512F-9D5C-45E8-B143-D0C99717614D}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="33600" windowHeight="20500" xr2:uid="{7DA9512F-9D5C-45E8-B143-D0C99717614D}"/>
   </bookViews>
   <sheets>
     <sheet name="classes" sheetId="8" r:id="rId1"/>
@@ -43,8 +43,906 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Johannes Nussbaum</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{8C60CF7B-DF4F-9446-903E-CE5BE8F8BDB3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">mandatory
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>Unique identifier for the resource class</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{62382271-EC50-1B4F-850B-D2C145F7E0E3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">one language mandatory
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>Label of the resource class that will be displayed in DSP-APP. Should be rather short.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{F3D73902-9E26-4E4D-BF84-D9B7F96BECC5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">optional
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>Description of the resource class. Can be longer than the label.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{05561041-2EAC-A240-800C-F9E2D0F92D68}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">mandatory
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">The type of this resource class, i.e. the base resource class(es) that this resource class is derived from.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Must be one of the values listed in the documentation. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">If more than one: separated by commas. </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Johannes Nussbaum</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{9AF14D3B-B10B-344E-B0C7-8D3E29763C8F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">mandatory
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The unique identifier of the property</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{80E9E38F-973D-334A-A3CE-37B495C0BD49}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">mandatory
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Indicates how often the property may occur. The possible values are: 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve"> - 1: exactly once (mandatory one value and only one)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve"> - 0-1: The value may be omitted, but can occur only once.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve"> - 1-n: At least one value must be present, but multiple values may be present.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve"> - 0-n: The value may be omitted, but may also occur multiple times.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{B3E285E6-952E-0841-B298-035BAEB96F5A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">optional
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">By default, DSP-APP displays the properties in the order how they are listed in the Excel sheet. If you prefer another order, you can provide a positive integer here.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>Example: You order the propnames alphabetically in the Excel, but they should be displayed in another order in DSP-APP.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Johannes Nussbaum</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{AE6C9CCA-EBB3-024B-9CE1-B78089D646E4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">mandatory
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The unique identifier of the property</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{E733C75C-9826-7D45-A843-3EE5EAEDAB4E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">mandatory
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Indicates how often the property may occur. The possible values are: 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve"> - 1: exactly once (mandatory one value and only one)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve"> - 0-1: The value may be omitted, but can occur only once.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve"> - 1-n: At least one value must be present, but multiple values may be present.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve"> - 0-n: The value may be omitted, but may also occur multiple times.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{C88940CB-ADD0-3245-98DB-1EB8EF72B7EF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">optional
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">By default, DSP-APP displays the properties in the order how they are listed in the Excel sheet. If you prefer another order, you can provide a positive integer here.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>Example: You order the propnames alphabetically in the Excel, but they should be displayed in another order in DSP-APP.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Johannes Nussbaum</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{42894DC8-F2A1-FF4D-9886-50785BCD99C5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">mandatory
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The unique identifier of the property</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{FA7922D6-CCB7-AA40-88DD-197EDEA4EF86}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">mandatory
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Indicates how often the property may occur. The possible values are: 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve"> - 1: exactly once (mandatory one value and only one)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve"> - 0-1: The value may be omitted, but can occur only once.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve"> - 1-n: At least one value must be present, but multiple values may be present.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve"> - 0-n: The value may be omitted, but may also occur multiple times.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{CDAB1FF9-E69C-3C4D-9AF1-5D55C2BEE62E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">optional
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">By default, DSP-APP displays the properties in the order how they are listed in the Excel sheet. If you prefer another order, you can provide a positive integer here.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>Example: You order the propnames alphabetically in the Excel, but they should be displayed in another order in DSP-APP.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Johannes Nussbaum</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{ACC2001E-4373-8047-810C-DCFA37AFFE79}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">mandatory
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The unique identifier of the property</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{79DF42A7-72B7-6049-AEA2-49E68661F3F8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">mandatory
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Indicates how often the property may occur. The possible values are: 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve"> - 1: exactly once (mandatory one value and only one)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve"> - 0-1: The value may be omitted, but can occur only once.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve"> - 1-n: At least one value must be present, but multiple values may be present.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve"> - 0-n: The value may be omitted, but may also occur multiple times.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{049413E2-C714-7643-899A-B0660C332848}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">optional
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">By default, DSP-APP displays the properties in the order how they are listed in the Excel sheet. If you prefer another order, you can provide a positive integer here.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>Example: You order the propnames alphabetically in the Excel, but they should be displayed in another order in DSP-APP.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="138">
   <si>
     <t>Cardinality</t>
   </si>
@@ -211,12 +1109,6 @@
     <t>0-1</t>
   </si>
   <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>fr</t>
-  </si>
-  <si>
     <t>Propriétaire</t>
   </si>
   <si>
@@ -238,12 +1130,6 @@
     <t>comment_fr</t>
   </si>
   <si>
-    <t>de</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
     <t>comment_de</t>
   </si>
   <si>
@@ -409,9 +1295,6 @@
     <t xml:space="preserve">   hasAnthroponym   </t>
   </si>
   <si>
-    <t>rm</t>
-  </si>
-  <si>
     <t>comment_rm</t>
   </si>
   <si>
@@ -452,13 +1335,35 @@
   </si>
   <si>
     <t xml:space="preserve">  1  </t>
+  </si>
+  <si>
+    <t>label_en</t>
+  </si>
+  <si>
+    <t>label_fr</t>
+  </si>
+  <si>
+    <t>label_it</t>
+  </si>
+  <si>
+    <t>label_rm</t>
+  </si>
+  <si>
+    <t>gui_order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     
+</t>
+  </si>
+  <si>
+    <t>label_de</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -513,6 +1418,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="34"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -543,11 +1477,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -574,8 +1509,14 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Feuil1" xfId="1" xr:uid="{62E45FE5-1366-448C-9556-6A8FC585BB6F}"/>
   </cellStyles>
@@ -888,11 +1829,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB7011A-D3D9-4EA8-AB3C-BA62FE335401}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB7011A-D3D9-4EA8-AB3C-BA62FE335401}">
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD14"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -909,149 +1850,149 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="G1" s="11" t="s">
+      <c r="B1" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="L1" s="11" t="s">
+      <c r="K1" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L1" s="14" t="s">
         <v>18</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="J2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="N3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="L4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -1062,25 +2003,25 @@
         <v>47</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="L5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="N5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -1091,19 +2032,19 @@
         <v>50</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="J6" t="s">
         <v>123</v>
-      </c>
-      <c r="J6" t="s">
-        <v>128</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>19</v>
@@ -1123,217 +2064,224 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="K7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="L7" t="s">
         <v>19</v>
       </c>
       <c r="M7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C8" s="6"/>
       <c r="G8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="M10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L13" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E14" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I16" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="5:9" x14ac:dyDescent="0.2">
       <c r="I18" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" location="name_2" xr:uid="{9BBDECCA-7E23-0F48-97D0-218378D2E913}"/>
+    <hyperlink ref="B1" r:id="rId2" location="labels_1" xr:uid="{0EEFD6CB-7339-2843-9EA0-8E4DFECB1417}"/>
+    <hyperlink ref="G1" r:id="rId3" location="comments_1" xr:uid="{C39250F5-6341-A749-AA74-3456F258036D}"/>
+    <hyperlink ref="L1" r:id="rId4" location="super_1" display="type" xr:uid="{DF99B5FF-B4D2-414E-A810-1E0F77A193FD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -1431,12 +2379,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3015D75-1C5B-4AD1-9C97-0CD088290370}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3015D75-1C5B-4AD1-9C97-0CD088290370}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1446,37 +2394,48 @@
     <col min="3" max="3" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1"/>
+      <c r="C1" s="15" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
       </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
         <v>54</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1484,7 +2443,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>135</v>
+        <v>130</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1492,7 +2454,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>128</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1500,7 +2465,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>134</v>
+        <v>129</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1508,7 +2476,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="C8" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1518,6 +2489,9 @@
       <c r="B9" t="s">
         <v>54</v>
       </c>
+      <c r="C9" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -1526,6 +2500,9 @@
       <c r="B10" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="C10" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
@@ -1534,6 +2511,9 @@
       <c r="B11" t="s">
         <v>54</v>
       </c>
+      <c r="C11" s="3">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -1542,7 +2522,9 @@
       <c r="B12" t="s">
         <v>54</v>
       </c>
-      <c r="C12"/>
+      <c r="C12" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1551,7 +2533,9 @@
       <c r="B13" t="s">
         <v>54</v>
       </c>
-      <c r="C13"/>
+      <c r="C13" s="3">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1560,7 +2544,9 @@
       <c r="B14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C14"/>
+      <c r="C14" s="3">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1569,43 +2555,49 @@
       <c r="B15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C15"/>
+      <c r="C15" s="3">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" location="cardinalities" xr:uid="{35AB5BFC-E25B-CE41-91C8-4D6F1100A9A9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5419B217-D9EC-F346-8233-C40615A8948C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5419B217-D9EC-F346-8233-C40615A8948C}">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1613,31 +2605,38 @@
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="1"/>
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10</v>
+      </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>85</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1645,7 +2644,10 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>86</v>
+      </c>
+      <c r="C4" s="3">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1655,6 +2657,9 @@
       <c r="B5" t="s">
         <v>54</v>
       </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
@@ -1663,6 +2668,9 @@
       <c r="B6" t="s">
         <v>54</v>
       </c>
+      <c r="C6" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -1671,7 +2679,9 @@
       <c r="B7" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7">
+        <v>3</v>
+      </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1681,7 +2691,9 @@
       <c r="B8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3">
+        <v>7</v>
+      </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1689,9 +2701,11 @@
         <v>28</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1701,6 +2715,9 @@
       <c r="B10" t="s">
         <v>27</v>
       </c>
+      <c r="C10" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1709,32 +2726,39 @@
       <c r="B11" t="s">
         <v>27</v>
       </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" location="cardinalities" xr:uid="{DC946E38-D138-2048-8DD8-89456D49692A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B0075A0-EB24-F546-9A2B-B2995CA28B66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B0075A0-EB24-F546-9A2B-B2995CA28B66}">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1746,14 +2770,16 @@
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="15" t="s">
+        <v>135</v>
+      </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1947,16 +2973,20 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" location="cardinalities" xr:uid="{A5C80A4F-2243-984B-9FE0-BD1A290D997B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6973A293-8311-2D4C-8BF3-BAEF4A15EFBB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6973A293-8311-2D4C-8BF3-BAEF4A15EFBB}">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1964,12 +2994,15 @@
     <col min="1" max="1" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2009,7 +3042,9 @@
       <c r="B5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2019,7 +3054,9 @@
       <c r="B6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2039,7 +3076,9 @@
       <c r="B8" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2098,12 +3137,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>1</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2115,7 +3157,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" location="cardinalities" xr:uid="{650B37B3-F2A4-3E49-97D6-A2CA1AB6B1EF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/testdata/excel2json_files/test-name (test_label)/resources.xlsx
+++ b/testdata/excel2json_files/test-name (test_label)/resources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nussbaum/Desktop/dsp-tools/testdata/excel2json_files/test-name (test_label)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4338CD55-47BB-C14E-B744-37BC66E76237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF51E70-ECAC-9F44-A357-6C4549DE8259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="33600" windowHeight="20500" xr2:uid="{7DA9512F-9D5C-45E8-B143-D0C99717614D}"/>
   </bookViews>
@@ -376,7 +376,7 @@
             <rFont val="Tahoma"/>
             <family val="34"/>
           </rPr>
-          <t xml:space="preserve">By default, DSP-APP displays the properties in the order how they are listed in the Excel sheet. If you prefer another order, you can provide a positive integer here.
+          <t xml:space="preserve">By default, DSP-APP displays the properties in the order how they are listed in the Excel sheet. If you prefer another order, you can make a numbering in this column.
 </t>
         </r>
         <r>
@@ -410,7 +410,7 @@
     <author>Johannes Nussbaum</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{AE6C9CCA-EBB3-024B-9CE1-B78089D646E4}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{C5934055-C2F2-F54E-A808-6C87E541AC08}">
       <text>
         <r>
           <rPr>
@@ -443,7 +443,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{E733C75C-9826-7D45-A843-3EE5EAEDAB4E}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{B36E1642-8FCF-874F-979A-0613FAA06961}">
       <text>
         <r>
           <rPr>
@@ -526,7 +526,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{C88940CB-ADD0-3245-98DB-1EB8EF72B7EF}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{5CAC496D-DC11-7D4A-9217-7E7622DDBDAD}">
       <text>
         <r>
           <rPr>
@@ -555,7 +555,7 @@
             <rFont val="Tahoma"/>
             <family val="34"/>
           </rPr>
-          <t xml:space="preserve">By default, DSP-APP displays the properties in the order how they are listed in the Excel sheet. If you prefer another order, you can provide a positive integer here.
+          <t xml:space="preserve">By default, DSP-APP displays the properties in the order how they are listed in the Excel sheet. If you prefer another order, you can make a numbering in this column.
 </t>
         </r>
         <r>
@@ -589,7 +589,7 @@
     <author>Johannes Nussbaum</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{42894DC8-F2A1-FF4D-9886-50785BCD99C5}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{54470D72-B589-0B41-A1EA-B5A6CBC8D131}">
       <text>
         <r>
           <rPr>
@@ -622,7 +622,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{FA7922D6-CCB7-AA40-88DD-197EDEA4EF86}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{0C2C0CAF-857F-D84E-A770-381161226AD3}">
       <text>
         <r>
           <rPr>
@@ -705,7 +705,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{CDAB1FF9-E69C-3C4D-9AF1-5D55C2BEE62E}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{C3DC71B3-84CC-9D47-A4AE-18FB849EF8EB}">
       <text>
         <r>
           <rPr>
@@ -734,7 +734,7 @@
             <rFont val="Tahoma"/>
             <family val="34"/>
           </rPr>
-          <t xml:space="preserve">By default, DSP-APP displays the properties in the order how they are listed in the Excel sheet. If you prefer another order, you can provide a positive integer here.
+          <t xml:space="preserve">By default, DSP-APP displays the properties in the order how they are listed in the Excel sheet. If you prefer another order, you can make a numbering in this column.
 </t>
         </r>
         <r>
@@ -768,7 +768,7 @@
     <author>Johannes Nussbaum</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{ACC2001E-4373-8047-810C-DCFA37AFFE79}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{83CB4CA3-EC36-704F-A6E1-21219B6E6810}">
       <text>
         <r>
           <rPr>
@@ -801,7 +801,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{79DF42A7-72B7-6049-AEA2-49E68661F3F8}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{59274056-052B-2B4D-919A-CA59A5A70E84}">
       <text>
         <r>
           <rPr>
@@ -884,7 +884,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{049413E2-C714-7643-899A-B0660C332848}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{010E6411-2ED0-0E40-A877-E6E4CBBCB82C}">
       <text>
         <r>
           <rPr>
@@ -913,7 +913,186 @@
             <rFont val="Tahoma"/>
             <family val="34"/>
           </rPr>
-          <t xml:space="preserve">By default, DSP-APP displays the properties in the order how they are listed in the Excel sheet. If you prefer another order, you can provide a positive integer here.
+          <t xml:space="preserve">By default, DSP-APP displays the properties in the order how they are listed in the Excel sheet. If you prefer another order, you can make a numbering in this column.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>Example: You order the propnames alphabetically in the Excel, but they should be displayed in another order in DSP-APP.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Johannes Nussbaum</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{CD2B840A-027A-6444-843B-DD3A0AF6BB9A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">mandatory
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The unique identifier of the property</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{DDF90181-E5BC-C04D-A2A3-975F7A5E7D82}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">mandatory
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Indicates how often the property may occur. The possible values are: 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve"> - 1: exactly once (mandatory one value and only one)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve"> - 0-1: The value may be omitted, but can occur only once.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve"> - 1-n: At least one value must be present, but multiple values may be present.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve"> - 0-n: The value may be omitted, but may also occur multiple times.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{87924BCD-3107-A947-9DB6-761A08913AB2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">optional
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">By default, DSP-APP displays the properties in the order how they are listed in the Excel sheet. If you prefer another order, you can make a numbering in this column.
 </t>
         </r>
         <r>
@@ -942,7 +1121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="138">
   <si>
     <t>Cardinality</t>
   </si>
@@ -1833,7 +2012,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2384,7 +2563,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2597,7 +2776,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2750,7 +2929,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" location="cardinalities" xr:uid="{DC946E38-D138-2048-8DD8-89456D49692A}"/>
+    <hyperlink ref="A1" r:id="rId1" location="cardinalities" xr:uid="{86B605BE-E947-AF4C-B79A-F0AA10748348}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>
@@ -2762,7 +2941,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2974,7 +3153,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" location="cardinalities" xr:uid="{A5C80A4F-2243-984B-9FE0-BD1A290D997B}"/>
+    <hyperlink ref="A1" r:id="rId1" location="cardinalities" xr:uid="{C2708372-6DB8-1141-B32D-16D30EBD0AF3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>
@@ -2986,7 +3165,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3158,7 +3337,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" location="cardinalities" xr:uid="{650B37B3-F2A4-3E49-97D6-A2CA1AB6B1EF}"/>
+    <hyperlink ref="A1" r:id="rId1" location="cardinalities" xr:uid="{7DABC132-40FD-2B49-A213-310955B72751}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>
@@ -3166,11 +3345,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A1EEFA-A9B4-A04C-BE5A-1160EEAAE284}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A1EEFA-A9B4-A04C-BE5A-1160EEAAE284}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3178,12 +3357,15 @@
     <col min="1" max="1" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3319,7 +3501,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" location="cardinalities" xr:uid="{66CC1907-56A2-774E-B8D7-B17F4973AFC9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3391,7 +3577,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/testdata/excel2json_files/test-name (test_label)/resources.xlsx
+++ b/testdata/excel2json_files/test-name (test_label)/resources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nusjoh00-adm/Desktop/dsp-tools/testdata/excel2project_files/test-name (test_label)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nussbaum/Desktop/dsp-tools/testdata/excel2json_files/test-name (test_label)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EE1B09-7B42-2B40-B799-CA52B3893422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF51E70-ECAC-9F44-A357-6C4549DE8259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{7DA9512F-9D5C-45E8-B143-D0C99717614D}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="33600" windowHeight="20500" xr2:uid="{7DA9512F-9D5C-45E8-B143-D0C99717614D}"/>
   </bookViews>
   <sheets>
     <sheet name="classes" sheetId="8" r:id="rId1"/>
@@ -43,8 +43,1085 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Johannes Nussbaum</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{8C60CF7B-DF4F-9446-903E-CE5BE8F8BDB3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">mandatory
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>Unique identifier for the resource class</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{62382271-EC50-1B4F-850B-D2C145F7E0E3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">one language mandatory
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>Label of the resource class that will be displayed in DSP-APP. Should be rather short.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{F3D73902-9E26-4E4D-BF84-D9B7F96BECC5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">optional
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>Description of the resource class. Can be longer than the label.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{05561041-2EAC-A240-800C-F9E2D0F92D68}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">mandatory
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">The type of this resource class, i.e. the base resource class(es) that this resource class is derived from.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Must be one of the values listed in the documentation. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">If more than one: separated by commas. </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Johannes Nussbaum</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{9AF14D3B-B10B-344E-B0C7-8D3E29763C8F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">mandatory
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The unique identifier of the property</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{80E9E38F-973D-334A-A3CE-37B495C0BD49}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">mandatory
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Indicates how often the property may occur. The possible values are: 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve"> - 1: exactly once (mandatory one value and only one)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve"> - 0-1: The value may be omitted, but can occur only once.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve"> - 1-n: At least one value must be present, but multiple values may be present.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve"> - 0-n: The value may be omitted, but may also occur multiple times.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{B3E285E6-952E-0841-B298-035BAEB96F5A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">optional
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">By default, DSP-APP displays the properties in the order how they are listed in the Excel sheet. If you prefer another order, you can make a numbering in this column.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>Example: You order the propnames alphabetically in the Excel, but they should be displayed in another order in DSP-APP.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Johannes Nussbaum</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{C5934055-C2F2-F54E-A808-6C87E541AC08}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">mandatory
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The unique identifier of the property</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{B36E1642-8FCF-874F-979A-0613FAA06961}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">mandatory
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Indicates how often the property may occur. The possible values are: 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve"> - 1: exactly once (mandatory one value and only one)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve"> - 0-1: The value may be omitted, but can occur only once.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve"> - 1-n: At least one value must be present, but multiple values may be present.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve"> - 0-n: The value may be omitted, but may also occur multiple times.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{5CAC496D-DC11-7D4A-9217-7E7622DDBDAD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">optional
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">By default, DSP-APP displays the properties in the order how they are listed in the Excel sheet. If you prefer another order, you can make a numbering in this column.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>Example: You order the propnames alphabetically in the Excel, but they should be displayed in another order in DSP-APP.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Johannes Nussbaum</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{54470D72-B589-0B41-A1EA-B5A6CBC8D131}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">mandatory
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The unique identifier of the property</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{0C2C0CAF-857F-D84E-A770-381161226AD3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">mandatory
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Indicates how often the property may occur. The possible values are: 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve"> - 1: exactly once (mandatory one value and only one)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve"> - 0-1: The value may be omitted, but can occur only once.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve"> - 1-n: At least one value must be present, but multiple values may be present.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve"> - 0-n: The value may be omitted, but may also occur multiple times.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{C3DC71B3-84CC-9D47-A4AE-18FB849EF8EB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">optional
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">By default, DSP-APP displays the properties in the order how they are listed in the Excel sheet. If you prefer another order, you can make a numbering in this column.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>Example: You order the propnames alphabetically in the Excel, but they should be displayed in another order in DSP-APP.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Johannes Nussbaum</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{83CB4CA3-EC36-704F-A6E1-21219B6E6810}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">mandatory
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The unique identifier of the property</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{59274056-052B-2B4D-919A-CA59A5A70E84}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">mandatory
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Indicates how often the property may occur. The possible values are: 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve"> - 1: exactly once (mandatory one value and only one)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve"> - 0-1: The value may be omitted, but can occur only once.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve"> - 1-n: At least one value must be present, but multiple values may be present.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve"> - 0-n: The value may be omitted, but may also occur multiple times.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{010E6411-2ED0-0E40-A877-E6E4CBBCB82C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">optional
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">By default, DSP-APP displays the properties in the order how they are listed in the Excel sheet. If you prefer another order, you can make a numbering in this column.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>Example: You order the propnames alphabetically in the Excel, but they should be displayed in another order in DSP-APP.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Johannes Nussbaum</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{CD2B840A-027A-6444-843B-DD3A0AF6BB9A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">mandatory
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The unique identifier of the property</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{DDF90181-E5BC-C04D-A2A3-975F7A5E7D82}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">mandatory
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">Indicates how often the property may occur. The possible values are: 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve"> - 1: exactly once (mandatory one value and only one)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve"> - 0-1: The value may be omitted, but can occur only once.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve"> - 1-n: At least one value must be present, but multiple values may be present.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve"> - 0-n: The value may be omitted, but may also occur multiple times.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{87924BCD-3107-A947-9DB6-761A08913AB2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">optional
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">By default, DSP-APP displays the properties in the order how they are listed in the Excel sheet. If you prefer another order, you can make a numbering in this column.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="34"/>
+          </rPr>
+          <t>Example: You order the propnames alphabetically in the Excel, but they should be displayed in another order in DSP-APP.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="138">
   <si>
     <t>Cardinality</t>
   </si>
@@ -211,12 +1288,6 @@
     <t>0-1</t>
   </si>
   <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>fr</t>
-  </si>
-  <si>
     <t>Propriétaire</t>
   </si>
   <si>
@@ -238,12 +1309,6 @@
     <t>comment_fr</t>
   </si>
   <si>
-    <t>de</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
     <t>comment_de</t>
   </si>
   <si>
@@ -409,9 +1474,6 @@
     <t xml:space="preserve">   hasAnthroponym   </t>
   </si>
   <si>
-    <t>rm</t>
-  </si>
-  <si>
     <t>comment_rm</t>
   </si>
   <si>
@@ -452,13 +1514,35 @@
   </si>
   <si>
     <t xml:space="preserve">  1  </t>
+  </si>
+  <si>
+    <t>label_en</t>
+  </si>
+  <si>
+    <t>label_fr</t>
+  </si>
+  <si>
+    <t>label_it</t>
+  </si>
+  <si>
+    <t>label_rm</t>
+  </si>
+  <si>
+    <t>gui_order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     
+</t>
+  </si>
+  <si>
+    <t>label_de</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -513,6 +1597,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="34"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -543,11 +1656,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -574,8 +1688,14 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Feuil1" xfId="1" xr:uid="{62E45FE5-1366-448C-9556-6A8FC585BB6F}"/>
   </cellStyles>
@@ -888,11 +2008,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB7011A-D3D9-4EA8-AB3C-BA62FE335401}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB7011A-D3D9-4EA8-AB3C-BA62FE335401}">
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -909,149 +2029,149 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="G1" s="11" t="s">
+      <c r="B1" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="L1" s="11" t="s">
+      <c r="K1" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L1" s="14" t="s">
         <v>18</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="J2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="N3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="L4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -1062,25 +2182,25 @@
         <v>47</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="L5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="N5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -1091,19 +2211,19 @@
         <v>50</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="J6" t="s">
         <v>123</v>
-      </c>
-      <c r="J6" t="s">
-        <v>128</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>19</v>
@@ -1123,217 +2243,224 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="K7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="L7" t="s">
         <v>19</v>
       </c>
       <c r="M7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C8" s="6"/>
       <c r="G8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="M10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L13" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E14" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I16" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="5:9" x14ac:dyDescent="0.2">
       <c r="I18" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" location="name_2" xr:uid="{9BBDECCA-7E23-0F48-97D0-218378D2E913}"/>
+    <hyperlink ref="B1" r:id="rId2" location="labels_1" xr:uid="{0EEFD6CB-7339-2843-9EA0-8E4DFECB1417}"/>
+    <hyperlink ref="G1" r:id="rId3" location="comments_1" xr:uid="{C39250F5-6341-A749-AA74-3456F258036D}"/>
+    <hyperlink ref="L1" r:id="rId4" location="super_1" display="type" xr:uid="{DF99B5FF-B4D2-414E-A810-1E0F77A193FD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -1431,12 +2558,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3015D75-1C5B-4AD1-9C97-0CD088290370}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3015D75-1C5B-4AD1-9C97-0CD088290370}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1446,37 +2573,48 @@
     <col min="3" max="3" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1"/>
+      <c r="C1" s="15" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
       </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
         <v>54</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1484,7 +2622,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>135</v>
+        <v>130</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1492,7 +2633,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>128</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1500,7 +2644,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>134</v>
+        <v>129</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1508,7 +2655,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="C8" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1518,6 +2668,9 @@
       <c r="B9" t="s">
         <v>54</v>
       </c>
+      <c r="C9" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -1526,6 +2679,9 @@
       <c r="B10" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="C10" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
@@ -1534,6 +2690,9 @@
       <c r="B11" t="s">
         <v>54</v>
       </c>
+      <c r="C11" s="3">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -1542,7 +2701,9 @@
       <c r="B12" t="s">
         <v>54</v>
       </c>
-      <c r="C12"/>
+      <c r="C12" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1551,7 +2712,9 @@
       <c r="B13" t="s">
         <v>54</v>
       </c>
-      <c r="C13"/>
+      <c r="C13" s="3">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1560,7 +2723,9 @@
       <c r="B14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C14"/>
+      <c r="C14" s="3">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1569,43 +2734,49 @@
       <c r="B15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C15"/>
+      <c r="C15" s="3">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" location="cardinalities" xr:uid="{35AB5BFC-E25B-CE41-91C8-4D6F1100A9A9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5419B217-D9EC-F346-8233-C40615A8948C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5419B217-D9EC-F346-8233-C40615A8948C}">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1613,31 +2784,38 @@
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="1"/>
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10</v>
+      </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>85</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1645,7 +2823,10 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>86</v>
+      </c>
+      <c r="C4" s="3">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1655,6 +2836,9 @@
       <c r="B5" t="s">
         <v>54</v>
       </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
@@ -1663,6 +2847,9 @@
       <c r="B6" t="s">
         <v>54</v>
       </c>
+      <c r="C6" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -1671,7 +2858,9 @@
       <c r="B7" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7">
+        <v>3</v>
+      </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1681,7 +2870,9 @@
       <c r="B8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3">
+        <v>7</v>
+      </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1689,9 +2880,11 @@
         <v>28</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1701,6 +2894,9 @@
       <c r="B10" t="s">
         <v>27</v>
       </c>
+      <c r="C10" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1709,36 +2905,43 @@
       <c r="B11" t="s">
         <v>27</v>
       </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" location="cardinalities" xr:uid="{86B605BE-E947-AF4C-B79A-F0AA10748348}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B0075A0-EB24-F546-9A2B-B2995CA28B66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B0075A0-EB24-F546-9A2B-B2995CA28B66}">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1746,14 +2949,16 @@
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="15" t="s">
+        <v>135</v>
+      </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1947,16 +3152,20 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" location="cardinalities" xr:uid="{C2708372-6DB8-1141-B32D-16D30EBD0AF3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6973A293-8311-2D4C-8BF3-BAEF4A15EFBB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6973A293-8311-2D4C-8BF3-BAEF4A15EFBB}">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1964,12 +3173,15 @@
     <col min="1" max="1" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2009,7 +3221,9 @@
       <c r="B5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2019,7 +3233,9 @@
       <c r="B6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2039,7 +3255,9 @@
       <c r="B8" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2098,12 +3316,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>1</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2115,16 +3336,20 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" location="cardinalities" xr:uid="{7DABC132-40FD-2B49-A213-310955B72751}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A1EEFA-A9B4-A04C-BE5A-1160EEAAE284}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A1EEFA-A9B4-A04C-BE5A-1160EEAAE284}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2132,12 +3357,15 @@
     <col min="1" max="1" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2273,7 +3501,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" location="cardinalities" xr:uid="{66CC1907-56A2-774E-B8D7-B17F4973AFC9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2345,7 +3577,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
